--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/WASHINGTON_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/WASHINGTON_2017.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1361"/>
+  <dimension ref="A1:D1355"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C9">
@@ -758,7 +758,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C29">
@@ -875,7 +875,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C38">
@@ -1057,7 +1057,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C52">
@@ -1096,7 +1096,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Montecristo de Guerrero</t>
+          <t>Montecristo De Guerrero</t>
         </is>
       </c>
       <c r="C55">
@@ -1174,7 +1174,7 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C61">
@@ -1556,7 +1556,7 @@
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C90">
@@ -1582,7 +1582,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C92">
@@ -1699,7 +1699,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C101">
@@ -1886,7 +1886,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C115">
@@ -2073,7 +2073,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C129">
@@ -2099,7 +2099,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -2156,7 +2156,7 @@
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C135">
@@ -2499,7 +2499,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C161">
@@ -2603,7 +2603,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C169">
@@ -2616,7 +2616,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C170">
@@ -2694,12 +2694,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C176">
@@ -2725,7 +2725,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C178">
@@ -2738,7 +2738,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C179">
@@ -2777,7 +2777,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C182">
@@ -2855,7 +2855,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C188">
@@ -2881,7 +2881,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C190">
@@ -2959,7 +2959,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C196">
@@ -3037,7 +3037,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C202">
@@ -3180,7 +3180,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C213">
@@ -3258,7 +3258,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C219">
@@ -3284,7 +3284,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C221">
@@ -3375,7 +3375,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C228">
@@ -3466,7 +3466,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C235">
@@ -3531,7 +3531,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C240">
@@ -3544,7 +3544,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C241">
@@ -3557,7 +3557,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C242">
@@ -3570,7 +3570,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C243">
@@ -3718,7 +3718,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C254">
@@ -3731,7 +3731,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C255">
@@ -3744,7 +3744,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C256">
@@ -3835,7 +3835,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C263">
@@ -3965,7 +3965,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C273">
@@ -4030,7 +4030,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C278">
@@ -4056,7 +4056,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C280">
@@ -4069,7 +4069,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C281">
@@ -4095,7 +4095,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C283">
@@ -4160,7 +4160,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C288">
@@ -4243,7 +4243,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C294">
@@ -4282,7 +4282,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C297">
@@ -4295,7 +4295,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C298">
@@ -4334,7 +4334,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C301">
@@ -4347,7 +4347,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C302">
@@ -4373,7 +4373,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C304">
@@ -4386,7 +4386,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C305">
@@ -4425,7 +4425,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C308">
@@ -4438,7 +4438,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C309">
@@ -4451,7 +4451,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C310">
@@ -4464,7 +4464,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C311">
@@ -4529,7 +4529,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C316">
@@ -4542,7 +4542,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C317">
@@ -4581,7 +4581,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C320">
@@ -4594,7 +4594,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C321">
@@ -4672,7 +4672,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C327">
@@ -4685,7 +4685,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C328">
@@ -4711,7 +4711,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C330">
@@ -4724,7 +4724,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C331">
@@ -4750,7 +4750,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C333">
@@ -4789,7 +4789,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C336">
@@ -4958,7 +4958,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C349">
@@ -4984,7 +4984,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C351">
@@ -5010,7 +5010,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C353">
@@ -5036,7 +5036,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C355">
@@ -5088,7 +5088,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C359">
@@ -5101,7 +5101,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C360">
@@ -5288,7 +5288,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C374">
@@ -5379,7 +5379,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C381">
@@ -5405,7 +5405,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C383">
@@ -5483,7 +5483,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C389">
@@ -5496,7 +5496,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C390">
@@ -5509,7 +5509,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C391">
@@ -5613,7 +5613,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C399">
@@ -5639,7 +5639,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C401">
@@ -5652,7 +5652,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C402">
@@ -5665,7 +5665,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C403">
@@ -5717,7 +5717,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C407">
@@ -5730,7 +5730,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C408">
@@ -5756,7 +5756,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C410">
@@ -5769,7 +5769,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C411">
@@ -5839,7 +5839,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C416">
@@ -5852,7 +5852,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C417">
@@ -5904,7 +5904,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C421">
@@ -5930,7 +5930,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C423">
@@ -5943,7 +5943,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C424">
@@ -6099,7 +6099,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C436">
@@ -6112,7 +6112,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C437">
@@ -6216,7 +6216,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C445">
@@ -6281,7 +6281,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C450">
@@ -6294,7 +6294,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C451">
@@ -6346,7 +6346,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C455">
@@ -6424,7 +6424,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C461">
@@ -6437,7 +6437,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C462">
@@ -6515,7 +6515,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C468">
@@ -6580,7 +6580,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C473">
@@ -6593,7 +6593,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C474">
@@ -6619,7 +6619,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C476">
@@ -6632,7 +6632,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C477">
@@ -6671,7 +6671,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C480">
@@ -6697,7 +6697,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C482">
@@ -6710,7 +6710,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C483">
@@ -6749,7 +6749,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C486">
@@ -6762,7 +6762,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C487">
@@ -6827,7 +6827,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C492">
@@ -6840,7 +6840,7 @@
     <row r="493">
       <c r="B493" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C493">
@@ -6866,7 +6866,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C495">
@@ -6879,7 +6879,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C496">
@@ -7009,7 +7009,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C506">
@@ -7022,7 +7022,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C507">
@@ -7074,7 +7074,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C511">
@@ -7087,7 +7087,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C512">
@@ -7126,7 +7126,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C515">
@@ -7139,7 +7139,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C516">
@@ -7152,7 +7152,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C517">
@@ -7469,7 +7469,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C541">
@@ -7495,7 +7495,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C543">
@@ -7801,7 +7801,7 @@
         <v>104</v>
       </c>
       <c r="D566">
-        <v>0.009895337773549001</v>
+        <v>0.009895337773549</v>
       </c>
     </row>
     <row r="567">
@@ -8314,7 +8314,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C606">
@@ -8644,7 +8644,7 @@
     <row r="631">
       <c r="B631" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C631">
@@ -8722,7 +8722,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C637">
@@ -8761,7 +8761,7 @@
     <row r="640">
       <c r="B640" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C640">
@@ -8826,7 +8826,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C645">
@@ -8839,7 +8839,7 @@
     <row r="646">
       <c r="B646" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C646">
@@ -8943,7 +8943,7 @@
     <row r="654">
       <c r="B654" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C654">
@@ -9000,7 +9000,7 @@
     <row r="658">
       <c r="B658" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C658">
@@ -9013,7 +9013,7 @@
     <row r="659">
       <c r="B659" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C659">
@@ -9065,7 +9065,7 @@
     <row r="663">
       <c r="B663" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C663">
@@ -9156,7 +9156,7 @@
     <row r="670">
       <c r="B670" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C670">
@@ -9356,7 +9356,7 @@
     <row r="685">
       <c r="B685" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C685">
@@ -9400,7 +9400,7 @@
     <row r="688">
       <c r="B688" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C688">
@@ -9439,7 +9439,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C691">
@@ -9504,7 +9504,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C696">
@@ -9517,7 +9517,7 @@
     <row r="697">
       <c r="B697" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C697">
@@ -9556,7 +9556,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C700">
@@ -9569,7 +9569,7 @@
     <row r="701">
       <c r="B701" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C701">
@@ -9595,7 +9595,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C703">
@@ -9608,7 +9608,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C704">
@@ -9621,7 +9621,7 @@
     <row r="705">
       <c r="B705" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C705">
@@ -9634,7 +9634,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C706">
@@ -9647,7 +9647,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C707">
@@ -9660,7 +9660,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C708">
@@ -9686,7 +9686,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C710">
@@ -9699,7 +9699,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C711">
@@ -9803,7 +9803,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C719">
@@ -9842,7 +9842,7 @@
     <row r="722">
       <c r="B722" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C722">
@@ -9855,7 +9855,7 @@
     <row r="723">
       <c r="B723" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C723">
@@ -9868,7 +9868,7 @@
     <row r="724">
       <c r="B724" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C724">
@@ -9881,7 +9881,7 @@
     <row r="725">
       <c r="B725" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C725">
@@ -9894,7 +9894,7 @@
     <row r="726">
       <c r="B726" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C726">
@@ -9920,7 +9920,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C728">
@@ -9933,7 +9933,7 @@
     <row r="729">
       <c r="B729" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C729">
@@ -10115,7 +10115,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C743">
@@ -10128,7 +10128,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C744">
@@ -10323,7 +10323,7 @@
     <row r="759">
       <c r="B759" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C759">
@@ -10375,7 +10375,7 @@
     <row r="763">
       <c r="B763" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C763">
@@ -10739,7 +10739,7 @@
     <row r="791">
       <c r="B791" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C791">
@@ -10817,7 +10817,7 @@
     <row r="797">
       <c r="B797" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C797">
@@ -10830,7 +10830,7 @@
     <row r="798">
       <c r="B798" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C798">
@@ -10973,7 +10973,7 @@
     <row r="809">
       <c r="B809" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C809">
@@ -11012,7 +11012,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C812">
@@ -11155,7 +11155,7 @@
     <row r="823">
       <c r="B823" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C823">
@@ -11272,7 +11272,7 @@
     <row r="832">
       <c r="B832" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C832">
@@ -11337,7 +11337,7 @@
     <row r="837">
       <c r="B837" t="inlineStr">
         <is>
-          <t>Santa Cruz de Bravo</t>
+          <t>Santa Cruz De Bravo</t>
         </is>
       </c>
       <c r="C837">
@@ -11389,7 +11389,7 @@
     <row r="841">
       <c r="B841" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C841">
@@ -11428,7 +11428,7 @@
     <row r="844">
       <c r="B844" t="inlineStr">
         <is>
-          <t>Santa Inés de Zaragoza</t>
+          <t>Santa Inés De Zaragoza</t>
         </is>
       </c>
       <c r="C844">
@@ -11441,7 +11441,7 @@
     <row r="845">
       <c r="B845" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C845">
@@ -11454,7 +11454,7 @@
     <row r="846">
       <c r="B846" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C846">
@@ -11545,7 +11545,7 @@
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>Santa María del Rosario</t>
+          <t>Santa María Del Rosario</t>
         </is>
       </c>
       <c r="C853">
@@ -11597,7 +11597,7 @@
     <row r="857">
       <c r="B857" t="inlineStr">
         <is>
-          <t>Santa María la Asunción</t>
+          <t>Santa María La Asunción</t>
         </is>
       </c>
       <c r="C857">
@@ -11961,7 +11961,7 @@
     <row r="885">
       <c r="B885" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C885">
@@ -12078,7 +12078,7 @@
     <row r="894">
       <c r="B894" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C894">
@@ -12091,7 +12091,7 @@
     <row r="895">
       <c r="B895" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C895">
@@ -12104,7 +12104,7 @@
     <row r="896">
       <c r="B896" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C896">
@@ -12117,7 +12117,7 @@
     <row r="897">
       <c r="B897" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C897">
@@ -12130,7 +12130,7 @@
     <row r="898">
       <c r="B898" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C898">
@@ -12143,7 +12143,7 @@
     <row r="899">
       <c r="B899" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C899">
@@ -12156,7 +12156,7 @@
     <row r="900">
       <c r="B900" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C900">
@@ -12182,7 +12182,7 @@
     <row r="902">
       <c r="B902" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C902">
@@ -12195,7 +12195,7 @@
     <row r="903">
       <c r="B903" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C903">
@@ -12208,7 +12208,7 @@
     <row r="904">
       <c r="B904" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C904">
@@ -12221,7 +12221,7 @@
     <row r="905">
       <c r="B905" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C905">
@@ -12260,7 +12260,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C908">
@@ -12273,7 +12273,7 @@
     <row r="909">
       <c r="B909" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C909">
@@ -12286,7 +12286,7 @@
     <row r="910">
       <c r="B910" t="inlineStr">
         <is>
-          <t>Villa Tejúpam de la Unión</t>
+          <t>Villa Tejúpam De La Unión</t>
         </is>
       </c>
       <c r="C910">
@@ -12325,7 +12325,7 @@
     <row r="913">
       <c r="B913" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C913">
@@ -12538,7 +12538,7 @@
     <row r="929">
       <c r="B929" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C929">
@@ -12720,7 +12720,7 @@
     <row r="943">
       <c r="B943" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C943">
@@ -12876,7 +12876,7 @@
     <row r="955">
       <c r="B955" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C955">
@@ -12889,7 +12889,7 @@
     <row r="956">
       <c r="B956" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C956">
@@ -12954,7 +12954,7 @@
     <row r="961">
       <c r="B961" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C961">
@@ -12993,7 +12993,7 @@
     <row r="964">
       <c r="B964" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C964">
@@ -13084,7 +13084,7 @@
     <row r="971">
       <c r="B971" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C971">
@@ -13188,7 +13188,7 @@
     <row r="979">
       <c r="B979" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C979">
@@ -13357,7 +13357,7 @@
     <row r="992">
       <c r="B992" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C992">
@@ -13383,7 +13383,7 @@
     <row r="994">
       <c r="B994" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C994">
@@ -13396,7 +13396,7 @@
     <row r="995">
       <c r="B995" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C995">
@@ -13448,7 +13448,7 @@
     <row r="999">
       <c r="B999" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C999">
@@ -13526,7 +13526,7 @@
     <row r="1005">
       <c r="B1005" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1005">
@@ -13539,7 +13539,7 @@
     <row r="1006">
       <c r="B1006" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C1006">
@@ -13552,7 +13552,7 @@
     <row r="1007">
       <c r="B1007" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1007">
@@ -13604,7 +13604,7 @@
     <row r="1011">
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1011">
@@ -13617,7 +13617,7 @@
     <row r="1012">
       <c r="B1012" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1012">
@@ -13630,7 +13630,7 @@
     <row r="1013">
       <c r="B1013" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1013">
@@ -13656,7 +13656,7 @@
     <row r="1015">
       <c r="B1015" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1015">
@@ -13799,7 +13799,7 @@
     <row r="1026">
       <c r="B1026" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerrero</t>
+          <t>Totoltepec De Guerrero</t>
         </is>
       </c>
       <c r="C1026">
@@ -13986,7 +13986,7 @@
       </c>
       <c r="B1040" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1040">
@@ -13999,7 +13999,7 @@
     <row r="1041">
       <c r="B1041" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1041">
@@ -14064,7 +14064,7 @@
     <row r="1046">
       <c r="B1046" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1046">
@@ -14077,7 +14077,7 @@
     <row r="1047">
       <c r="B1047" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1047">
@@ -14116,7 +14116,7 @@
     <row r="1050">
       <c r="B1050" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1050">
@@ -14155,7 +14155,7 @@
     <row r="1053">
       <c r="B1053" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1053">
@@ -14321,7 +14321,7 @@
     <row r="1065">
       <c r="B1065" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1065">
@@ -14399,7 +14399,7 @@
     <row r="1071">
       <c r="B1071" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1071">
@@ -14451,7 +14451,7 @@
     <row r="1075">
       <c r="B1075" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1075">
@@ -14477,7 +14477,7 @@
     <row r="1077">
       <c r="B1077" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1077">
@@ -14542,7 +14542,7 @@
     <row r="1082">
       <c r="B1082" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1082">
@@ -14568,7 +14568,7 @@
     <row r="1084">
       <c r="B1084" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1084">
@@ -14581,7 +14581,7 @@
     <row r="1085">
       <c r="B1085" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1085">
@@ -14594,7 +14594,7 @@
     <row r="1086">
       <c r="B1086" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1086">
@@ -15033,7 +15033,7 @@
     <row r="1119">
       <c r="B1119" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1119">
@@ -15607,7 +15607,7 @@
     <row r="1162">
       <c r="B1162" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1162">
@@ -15646,7 +15646,7 @@
     <row r="1165">
       <c r="B1165" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1165">
@@ -15859,7 +15859,7 @@
     <row r="1181">
       <c r="B1181" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1181">
@@ -15898,7 +15898,7 @@
     <row r="1184">
       <c r="B1184" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1184">
@@ -16028,7 +16028,7 @@
     <row r="1194">
       <c r="B1194" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1194">
@@ -16184,7 +16184,7 @@
     <row r="1206">
       <c r="B1206" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1206">
@@ -16327,7 +16327,7 @@
     <row r="1217">
       <c r="B1217" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1217">
@@ -16340,7 +16340,7 @@
     <row r="1218">
       <c r="B1218" t="inlineStr">
         <is>
-          <t>Huiloapan de Cuauhtémoc</t>
+          <t>Huiloapan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1218">
@@ -16353,7 +16353,7 @@
     <row r="1219">
       <c r="B1219" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1219">
@@ -16379,7 +16379,7 @@
     <row r="1221">
       <c r="B1221" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1221">
@@ -16392,7 +16392,7 @@
     <row r="1222">
       <c r="B1222" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1222">
@@ -16483,7 +16483,7 @@
     <row r="1229">
       <c r="B1229" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1229">
@@ -16548,7 +16548,7 @@
     <row r="1234">
       <c r="B1234" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1234">
@@ -16587,7 +16587,7 @@
     <row r="1237">
       <c r="B1237" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1237">
@@ -16626,7 +16626,7 @@
     <row r="1240">
       <c r="B1240" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1240">
@@ -16756,7 +16756,7 @@
     <row r="1250">
       <c r="B1250" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1250">
@@ -16782,7 +16782,7 @@
     <row r="1252">
       <c r="B1252" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1252">
@@ -16873,7 +16873,7 @@
     <row r="1259">
       <c r="B1259" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1259">
@@ -17146,7 +17146,7 @@
     <row r="1280">
       <c r="B1280" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1280">
@@ -17237,7 +17237,7 @@
     <row r="1287">
       <c r="B1287" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1287">
@@ -17250,7 +17250,7 @@
     <row r="1288">
       <c r="B1288" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1288">
@@ -17650,7 +17650,7 @@
     <row r="1318">
       <c r="B1318" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1318">
@@ -17663,7 +17663,7 @@
     <row r="1319">
       <c r="B1319" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1319">
@@ -17767,7 +17767,7 @@
     <row r="1327">
       <c r="B1327" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1327">
@@ -17832,7 +17832,7 @@
     <row r="1332">
       <c r="B1332" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1332">
@@ -17871,7 +17871,7 @@
     <row r="1335">
       <c r="B1335" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1335">
@@ -17884,7 +17884,7 @@
     <row r="1336">
       <c r="B1336" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1336">
@@ -17988,7 +17988,7 @@
     <row r="1344">
       <c r="B1344" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1344">
@@ -18001,7 +18001,7 @@
     <row r="1345">
       <c r="B1345" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1345">
@@ -18014,7 +18014,7 @@
     <row r="1346">
       <c r="B1346" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1346">
@@ -18040,7 +18040,7 @@
     <row r="1348">
       <c r="B1348" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1348">
@@ -18139,41 +18139,6 @@
       </c>
       <c r="D1355">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1357">
-      <c r="A1357" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 826,856</t>
-        </is>
-      </c>
-    </row>
-    <row r="1358">
-      <c r="A1358" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1359">
-      <c r="A1359" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1360">
-      <c r="A1360" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1361">
-      <c r="A1361" t="inlineStr">
-        <is>
-          <t>Junio de 2018</t>
-        </is>
       </c>
     </row>
   </sheetData>
